--- a/biology/Zoologie/Richard_Ellsworth_Call/Richard_Ellsworth_Call.xlsx
+++ b/biology/Zoologie/Richard_Ellsworth_Call/Richard_Ellsworth_Call.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Ellsworth Call est un malacologiste américain, né le 13 mars 1856 à Brooklyn et mort en 1917 à New York.
 Call fait ses études à l’université de l'Indiana à Bloomington (Indiana) où il obtient son Bachelor of Arts en 1890, son Master of Arts en 1891. Il obtient un Master of Sciences en 1890 à l’Iowa State College (aujourd’hui l’université d'État de l'Iowa). Il obtient son doctorat de médecine à l’école de médecine de l’université de Louisville en 1893. Il reçoit son Ph. D. en 1895 à l’université de l'État de l'Ohio.
@@ -514,7 +526,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Une liste partielle peut être consultable ici.
 1885-1887 : Sporadic papers (Des Moines) — Un exemplaire numérique sur Internet Archive.
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Johnson, R.I. (1975). R. Ellsworth Call with a bibliography of his works on mollusks and a catalogue of his taxa. Occasional Papers on Mollusks, Museum of Comparative Zoology, Harvard University 4 (54) : 133-144.</t>
         </is>
